--- a/docs/reference/report.xlsx
+++ b/docs/reference/report.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-25 18:18:43.540776</t>
+          <t>2025-04-27 16:20:07.513359</t>
         </is>
       </c>
     </row>

--- a/docs/reference/report.xlsx
+++ b/docs/reference/report.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-27 16:20:07.513359</t>
+          <t>2025-04-27 18:28:22.882445</t>
         </is>
       </c>
     </row>

--- a/docs/reference/report.xlsx
+++ b/docs/reference/report.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-27 18:28:22.882445</t>
+          <t>2025-04-27 18:39:25.772499</t>
         </is>
       </c>
     </row>

--- a/docs/reference/report.xlsx
+++ b/docs/reference/report.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-27 18:39:25.772499</t>
+          <t>2025-04-28 10:32:45.239586</t>
         </is>
       </c>
     </row>

--- a/docs/reference/report.xlsx
+++ b/docs/reference/report.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-27 18:39:25.772499</t>
+          <t>2025-04-28 10:43:25.092375</t>
         </is>
       </c>
     </row>

--- a/docs/reference/report.xlsx
+++ b/docs/reference/report.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-28 10:43:25.092375</t>
+          <t>2025-04-30 17:56:50.982885</t>
         </is>
       </c>
     </row>
@@ -4396,7 +4396,7 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="14.711"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" hidden="false" width="11.711"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" hidden="false" width="17.711"/>
     <col min="4" max="4" bestFit="1" customWidth="1" hidden="false" width="13.711"/>
     <col min="5" max="5" bestFit="1" customWidth="1" hidden="false" width="17.711"/>
     <col min="6" max="6" bestFit="1" customWidth="1" hidden="false" width="8.711"/>
@@ -4823,7 +4823,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>S1P d18:1</t>
+          <t>S1P d18:1 13C2D2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -5245,7 +5245,7 @@
         </is>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -5324,7 +5324,7 @@
         </is>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -5401,7 +5401,7 @@
         </is>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -5451,7 +5451,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>S1P d18:1</t>
+          <t>S1P d18:1 13C2D2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -5478,7 +5478,7 @@
         </is>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -5557,7 +5557,7 @@
         </is>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -5636,7 +5636,7 @@
         </is>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -5715,7 +5715,7 @@
         </is>
       </c>
       <c r="I17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>

--- a/docs/reference/report.xlsx
+++ b/docs/reference/report.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-30 17:56:50.982885</t>
+          <t>2025-05-02 11:34:52.254808</t>
         </is>
       </c>
     </row>

--- a/docs/reference/report.xlsx
+++ b/docs/reference/report.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-04-28 10:32:45.239586</t>
+          <t>2025-05-08 15:52:07.038986</t>
         </is>
       </c>
     </row>

--- a/docs/reference/report.xlsx
+++ b/docs/reference/report.xlsx
@@ -162,7 +162,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="3" name="Table3" displayName="Table3" ref="A1:A3" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:A3"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Calibration metrics has not been calculated."/>
+    <tableColumn id="1" name="Calibration metrics have not been calculated."/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -613,10 +613,10 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="1" tabSelected="1" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="18.711"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="25.711"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="27.711"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-05-08 16:53:21.0599</t>
+          <t>2025-05-30 17:03:49.810467</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="15.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
@@ -4392,7 +4392,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="14.711"/>
@@ -5775,7 +5775,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="16.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
@@ -5863,7 +5863,7 @@
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="1" tabSelected="0" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" bestFit="1" customWidth="1" hidden="false" width="9.711"/>
     <col min="3" max="3" bestFit="1" customWidth="1" hidden="false" width="15.711"/>
@@ -5929,7 +5929,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="44.711"/>
   </cols>
@@ -5976,15 +5976,15 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="45.711"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="46.711"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Calibration metrics has not been calculated.</t>
+          <t>Calibration metrics have not been calculated.</t>
         </is>
       </c>
     </row>
@@ -6023,7 +6023,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="31.711"/>
   </cols>
@@ -6070,7 +6070,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="31.711"/>
   </cols>
@@ -6117,7 +6117,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="8.711"/>
@@ -10381,7 +10381,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="8.711"/>
@@ -14645,7 +14645,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="32.711"/>
     <col min="2" max="2" bestFit="1" customWidth="1" hidden="false" width="8.711"/>
@@ -18505,7 +18505,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8.43" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" hidden="false" width="13.711"/>
     <col min="2" max="8" bestFit="1" customWidth="1" hidden="false" width="17.711"/>

--- a/docs/reference/report.xlsx
+++ b/docs/reference/report.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-05-30 17:03:49.810467</t>
+          <t>2025-06-16 10:44:10.589477</t>
         </is>
       </c>
     </row>

--- a/docs/reference/report.xlsx
+++ b/docs/reference/report.xlsx
@@ -67,6 +67,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="1" name="Table1" displayName="Table1" ref="A1:B6" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:B6"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Info"/>
     <tableColumn id="2" name="Value"/>
@@ -138,6 +139,7 @@
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="13" name="Table13" displayName="Table13" ref="A1:D2" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
   <tableColumns count="4">
     <tableColumn id="1" name="batch_id"/>
     <tableColumn id="2" name="batch_no"/>
@@ -170,6 +172,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="4" name="Table4" displayName="Table4" ref="A1:A3" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:A3"/>
   <tableColumns count="1">
     <tableColumn id="1" name="No qc-filtered data available."/>
   </tableColumns>
@@ -179,6 +182,7 @@
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="5" name="Table5" displayName="Table5" ref="A1:A3" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:A3"/>
   <tableColumns count="1">
     <tableColumn id="1" name="No qc-filtered data available."/>
   </tableColumns>
@@ -188,6 +192,7 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="6" name="Table6" displayName="Table6" ref="A1:S66" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:S66"/>
   <tableColumns count="19">
     <tableColumn id="1" name="analysis_id"/>
     <tableColumn id="2" name="qc_type"/>
@@ -215,6 +220,7 @@
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="7" name="Table7" displayName="Table7" ref="A1:S66" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:S66"/>
   <tableColumns count="19">
     <tableColumn id="1" name="analysis_id"/>
     <tableColumn id="2" name="qc_type"/>
@@ -242,6 +248,7 @@
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" id="8" name="Table8" displayName="Table8" ref="A1:Q66" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:Q66"/>
   <tableColumns count="17">
     <tableColumn id="1" name="analysis_id"/>
     <tableColumn id="2" name="qc_type"/>
@@ -639,7 +646,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-06-16 10:44:10.589477</t>
+          <t>2025-07-01 19:06:10.674869</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5868,10 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="1" tabSelected="0" workbookViewId="0" zoomScale="100"/>
+    <sheetView showGridLines="0" showRowColHeaders="1" tabSelected="0" workbookViewId="0" zoomScale="100">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/docs/reference/report.xlsx
+++ b/docs/reference/report.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-01 19:06:10.674869</t>
+          <t>2025-07-03 16:13:41.033316</t>
         </is>
       </c>
     </row>

--- a/docs/reference/report.xlsx
+++ b/docs/reference/report.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-03 16:13:41.033316</t>
+          <t>2025-07-16 13:42:22.645909</t>
         </is>
       </c>
     </row>

--- a/docs/reference/report.xlsx
+++ b/docs/reference/report.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-16 13:42:22.645909</t>
+          <t>2025-07-16 16:08:30.700598</t>
         </is>
       </c>
     </row>

--- a/docs/reference/report.xlsx
+++ b/docs/reference/report.xlsx
@@ -646,7 +646,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-07-16 16:08:30.700598</t>
+          <t>2025-08-07 13:32:22.145784</t>
         </is>
       </c>
     </row>
